--- a/QUANGHANH2/excel/TCLD/TuyenDung/Template/TuyenDungForm.xlsx
+++ b/QUANGHANH2/excel/TCLD/TuyenDung/Template/TuyenDungForm.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Nam">Sheet1!$E$67</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>DANH SÁCH TIẾP NHẬN VÀ BỐ TRÍ CÔNG TÁC ĐỐI VỚI CÔNG NHÂN</t>
     <phoneticPr fontId="1"/>
@@ -87,13 +90,40 @@
   </si>
   <si>
     <t>Năm</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>Ngày cấp CMT</t>
+  </si>
+  <si>
+    <t>Nơi cấp</t>
+  </si>
+  <si>
+    <t>Dân tộc</t>
+  </si>
+  <si>
+    <t>Bố</t>
+  </si>
+  <si>
+    <t>Mẹ</t>
+  </si>
+  <si>
+    <t>Vợ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +186,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,19 +311,43 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -593,80 +654,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2"/>
     <col min="2" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="7" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="2" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="2"/>
-    <col min="15" max="16384" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="14" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="14" style="10" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" ht="18.75" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="19" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="E3" s="12" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="56.25">
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="75">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -676,38 +752,349 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="O4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="P4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="Q4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="R4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="S4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="T4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="U4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="D5" s="6"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="E5" s="15"/>
+      <c r="H5" s="6"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="D6" s="18"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="E14" s="15"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="15"/>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="5:5">
+      <c r="E84" s="15"/>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="15"/>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="15"/>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -716,6 +1103,11 @@
     <mergeCell ref="I2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"Nam,Nữ"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/QUANGHANH2/excel/TCLD/TuyenDung/Template/TuyenDungForm.xlsx
+++ b/QUANGHANH2/excel/TCLD/TuyenDung/Template/TuyenDungForm.xlsx
@@ -657,7 +657,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
@@ -673,7 +673,7 @@
     <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" style="10" customWidth="1"/>
@@ -758,53 +758,53 @@
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="O4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -812,8 +812,7 @@
     <row r="5" spans="1:23">
       <c r="E5" s="15"/>
       <c r="H5" s="6"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:23">
       <c r="D6" s="18"/>

--- a/QUANGHANH2/excel/TCLD/TuyenDung/Template/TuyenDungForm.xlsx
+++ b/QUANGHANH2/excel/TCLD/TuyenDung/Template/TuyenDungForm.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -288,91 +288,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,444 +632,440 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="14" style="10" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="10" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5546875" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:23" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="27" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="75">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="E5" s="15"/>
-      <c r="H5" s="6"/>
-      <c r="N5" s="13"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="D6" s="18"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="E7" s="15"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="E8" s="15"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="E9" s="15"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="E10" s="15"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="E11" s="15"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="E12" s="15"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="E13" s="15"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="E14" s="15"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="8"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="E15" s="15"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="E16" s="15"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="15"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="15"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="15"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="15"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="15"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="15"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="15"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="15"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="15"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="15"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="15"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="15"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="15"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="15"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="15"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="15"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="15"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="15"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="15"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="15"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="15"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="15"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="15"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="15"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="15"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="15"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="15"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="15"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="15"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="15"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="15"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="15"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="15"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="15"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="15"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="15"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="15"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="15"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="15"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="15"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="15"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="15"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="15"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="15"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="15"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="15"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="15"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="15"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="15"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="15"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="15"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="15"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="15"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="15"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="15"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="15"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="15"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="15"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="15"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="15"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="15"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="15"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="15"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="5:5">
-      <c r="E80" s="15"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="15"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="15"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="15"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="15"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="15"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="15"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="15"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="5:5">
-      <c r="E88" s="15"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="15"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="15"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="15"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="15"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="15"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" spans="5:5">
-      <c r="E94" s="15"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="5:5">
-      <c r="E95" s="15"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="15"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="15"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="15"/>
+      <c r="E98" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
